--- a/data/534/MOSPI/APEDA/Indian Production of Jowar_historical.xlsx
+++ b/data/534/MOSPI/APEDA/Indian Production of Jowar_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indian Production of Jowar" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,17 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Page Total</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,10 +366,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:72">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1">
       <c r="B1" s="1" t="n">
         <v>1950</v>
       </c>
@@ -595,9 +581,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Page Total</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>5.5</v>
@@ -809,7 +797,7 @@
       <c r="BS2" t="n">
         <v>4.758010000000001</v>
       </c>
-      <c r="BT2" t="s"/>
+      <c r="BT2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/534/MOSPI/APEDA/Indian Production of Jowar_historical.xlsx
+++ b/data/534/MOSPI/APEDA/Indian Production of Jowar_historical.xlsx
@@ -1,37 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indian Production of Jowar" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Indian Production of Jowar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Page Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +57,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +76,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,453 +373,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BT2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:72">
+      <c r="B1" s="1">
         <v>1950</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1951</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1952</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1953</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1954</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1955</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1956</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1957</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1958</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1959</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1960</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1961</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1962</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1963</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1964</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1965</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1966</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1967</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1968</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1969</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1970</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1971</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1972</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1973</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1974</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1975</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1976</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1977</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1978</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1979</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>1980</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>1981</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>1982</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>1983</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>1984</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>1985</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>1986</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>1987</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>1988</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>1989</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>1990</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>1991</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>1992</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>1993</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>1994</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>1995</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>1996</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>1997</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>1998</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>1999</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>2000</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="1">
         <v>2001</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="1">
         <v>2002</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="1">
         <v>2003</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="1">
         <v>2004</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="1">
         <v>2005</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="1">
         <v>2006</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="1">
         <v>2007</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="1">
         <v>2008</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="1">
         <v>2009</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="1">
         <v>2010</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="1">
         <v>2011</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="1">
         <v>2012</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="1">
         <v>2013</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="1">
         <v>2014</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="1">
         <v>2015</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="1">
         <v>2016</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="1">
         <v>2017</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="1">
         <v>2018</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="1">
         <v>2019</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Page Total</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:72">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>5.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6.08</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7.36</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>8.08</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>9.199999999999999</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>6.73</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>7.33</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>8.640000000000001</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>9.029999999999999</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>8.58</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>9.81</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>8.029999999999999</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>9.75</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>9.199999999999999</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>9.68</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>7.58</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>9.220000000000001</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>10.05</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>9.800000000000001</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>9.720000000000001</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>8.109999999999999</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>7.72</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>6.97</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>9.1</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>10.41</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>9.5</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>10.52</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>12.06</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>11.44</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>11.65</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>10.43</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>12.06</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>10.75</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>11.92</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>11.4</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>10.2</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>9.19</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>12.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>10.17</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>12.9</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>11.68</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>8.1</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>12.81</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>11.41</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>8.970000000000001</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>9.33</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>10.94</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>7.53</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>8.42</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>8.68</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>7.53</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>7.56</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>7.01</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>6.68</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>7.24</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>7.63</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>7.15</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>7.93</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>7.25</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>6.7</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>7</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>5.98</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>5.28</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>5.541806</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>5.45</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>4.24</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>4.57</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>4.8</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>3.5</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>4.758010000000001</v>
       </c>
-      <c r="BT2" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/534/MOSPI/APEDA/Indian Production of Jowar_historical.xlsx
+++ b/data/534/MOSPI/APEDA/Indian Production of Jowar_historical.xlsx
@@ -1,48 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Indian Production of Jowar" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indian Production of Jowar" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Page Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -76,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -373,444 +353,453 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:72">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BP1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BQ1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BR1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BS1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BT1" s="1" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Page Total</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>5.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>6.08</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>7.36</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>8.08</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>6.73</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>7.33</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>8.640000000000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>9.029999999999999</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>8.58</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>9.81</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>9.75</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>9.68</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>7.58</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>10.05</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>8.109999999999999</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>7.72</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>6.97</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>9.1</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>10.41</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>10.52</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>12.06</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>11.44</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>11.65</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>10.43</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>12.06</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>10.75</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>11.92</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>11.4</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>10.2</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>9.19</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>12.2</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>10.17</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>12.9</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>11.68</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>8.1</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>12.81</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>11.41</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>8.970000000000001</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>9.33</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>10.94</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>7.53</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>8.42</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>8.68</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>7.53</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>7.56</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>7.01</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>6.68</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>7.24</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>7.63</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>7.15</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>7.93</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>7.25</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>6.7</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>7</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>5.98</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>5.28</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>5.541806</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>5.45</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>4.24</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>4.57</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>4.8</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>3.5</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>4.758010000000001</v>
       </c>
+      <c r="BT2" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>